--- a/sprints/Sprint2/Sprint 2 Backlog Burndown Chart.xlsx
+++ b/sprints/Sprint2/Sprint 2 Backlog Burndown Chart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Related User Story</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Add selection of measurement unit to add ingredient (Web)</t>
+  </si>
+  <si>
+    <t>Ben</t>
   </si>
   <si>
     <t>make pantry page a tiled display with add feature next to header (Web)</t>
@@ -154,6 +157,12 @@
   </si>
   <si>
     <t>Update ERD</t>
+  </si>
+  <si>
+    <t>Search recipes by name (Desktop)</t>
+  </si>
+  <si>
+    <t>Search recipes by name (Web)</t>
   </si>
   <si>
     <t>Find Recipes using available Ingredients</t>
@@ -218,7 +227,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +256,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEAF6"/>
         <bgColor rgb="FFDEEAF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
       </patternFill>
     </fill>
     <fill>
@@ -286,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -310,16 +325,19 @@
     <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -395,11 +413,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1445294184"/>
-        <c:axId val="2081824733"/>
+        <c:axId val="971809932"/>
+        <c:axId val="979187728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1445294184"/>
+        <c:axId val="971809932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,10 +469,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081824733"/>
+        <c:crossAx val="979187728"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081824733"/>
+        <c:axId val="979187728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,7 +536,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1445294184"/>
+        <c:crossAx val="971809932"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -850,32 +868,48 @@
       <c r="E5" s="7">
         <v>2.0</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="9"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="9"/>
       <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.0</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="9"/>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>12</v>
@@ -893,7 +927,7 @@
     <row r="9">
       <c r="A9" s="9"/>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>12</v>
@@ -909,13 +943,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <v>2.0</v>
       </c>
       <c r="E10" s="7">
@@ -927,7 +961,7 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -937,8 +971,8 @@
     </row>
     <row r="12">
       <c r="A12" s="9"/>
-      <c r="B12" s="12" t="s">
-        <v>19</v>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>12</v>
@@ -946,13 +980,17 @@
       <c r="D12" s="6">
         <v>2.0</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="9"/>
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>9</v>
@@ -961,55 +999,77 @@
         <v>1.0</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="9"/>
       <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="9"/>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="6">
         <v>1.0</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
       <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="6">
         <v>1.0</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="9"/>
@@ -1021,7 +1081,7 @@
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1032,7 +1092,7 @@
     <row r="20">
       <c r="A20" s="9"/>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>9</v>
@@ -1041,12 +1101,14 @@
         <v>2.0</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="7">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>9</v>
@@ -1057,12 +1119,14 @@
       <c r="E21" s="7">
         <v>0.5</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>9</v>
@@ -1073,22 +1137,32 @@
       <c r="E22" s="7">
         <v>0.5</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>9</v>
@@ -1097,22 +1171,32 @@
         <v>1.0</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="7">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>12</v>
@@ -1120,76 +1204,118 @@
       <c r="D26" s="6">
         <v>3.0</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="E26" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+        <v>3.0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1.0</v>
+      </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="B32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
@@ -1201,10 +1327,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>12</v>
@@ -1212,23 +1338,35 @@
       <c r="D34" s="6">
         <v>3.0</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>9</v>
@@ -1236,23 +1374,33 @@
       <c r="D36" s="6">
         <v>1.0</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="7">
+        <v>1.0</v>
+      </c>
       <c r="F36" s="8"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>9</v>
@@ -1268,7 +1416,7 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>9</v>
@@ -1284,7 +1432,7 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>9</v>
@@ -1298,22 +1446,22 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15">
         <f t="shared" ref="D41:F41" si="1">SUM(D3:D40)</f>
-        <v>33.5</v>
-      </c>
-      <c r="E41" s="14">
+        <v>51</v>
+      </c>
+      <c r="E41" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F41" s="14">
+        <v>35.5</v>
+      </c>
+      <c r="F41" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1"/>
